--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cntf-Lifr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cntf-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,15 +76,6 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Cntf</t>
-  </si>
-  <si>
-    <t>Lifr</t>
-  </si>
-  <si>
     <t>ECs</t>
   </si>
   <si>
@@ -94,10 +85,19 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
+  </si>
+  <si>
+    <t>Cntf</t>
+  </si>
+  <si>
+    <t>Lifr</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.674545568676103</v>
+        <v>0.3788275</v>
       </c>
       <c r="H2">
-        <v>0.674545568676103</v>
+        <v>0.757655</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.07061342889271995</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05378730327014565</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.6557964151363</v>
+        <v>31.7631495</v>
       </c>
       <c r="N2">
-        <v>31.6557964151363</v>
+        <v>63.52629899999999</v>
       </c>
       <c r="O2">
-        <v>0.261061763623723</v>
+        <v>0.2494255238736205</v>
       </c>
       <c r="P2">
-        <v>0.261061763623723</v>
+        <v>0.1905320411699034</v>
       </c>
       <c r="Q2">
-        <v>21.35327719474306</v>
+        <v>12.03275451721125</v>
       </c>
       <c r="R2">
-        <v>21.35327719474306</v>
+        <v>48.13101806884499</v>
       </c>
       <c r="S2">
-        <v>0.261061763623723</v>
+        <v>0.01761279149407933</v>
       </c>
       <c r="T2">
-        <v>0.261061763623723</v>
+        <v>0.01024820468108547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.674545568676103</v>
+        <v>0.3788275</v>
       </c>
       <c r="H3">
-        <v>0.674545568676103</v>
+        <v>0.757655</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.07061342889271995</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.05378730327014565</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.1535840603472</v>
+        <v>17.81777966666667</v>
       </c>
       <c r="N3">
-        <v>16.1535840603472</v>
+        <v>53.453339</v>
       </c>
       <c r="O3">
-        <v>0.1332167761106112</v>
+        <v>0.139917139754138</v>
       </c>
       <c r="P3">
-        <v>0.1332167761106112</v>
+        <v>0.1603205907999899</v>
       </c>
       <c r="Q3">
-        <v>10.89632854614413</v>
+        <v>6.749864926674166</v>
       </c>
       <c r="R3">
-        <v>10.89632854614413</v>
+        <v>40.499189560045</v>
       </c>
       <c r="S3">
-        <v>0.1332167761106112</v>
+        <v>0.00988002899890158</v>
       </c>
       <c r="T3">
-        <v>0.1332167761106112</v>
+        <v>0.00862321223780798</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.674545568676103</v>
+        <v>0.3788275</v>
       </c>
       <c r="H4">
-        <v>0.674545568676103</v>
+        <v>0.757655</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.07061342889271995</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.05378730327014565</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.6892156434346</v>
+        <v>13.32746566666667</v>
       </c>
       <c r="N4">
-        <v>11.6892156434346</v>
+        <v>39.982397</v>
       </c>
       <c r="O4">
-        <v>0.09639963598558889</v>
+        <v>0.1046561867492399</v>
       </c>
       <c r="P4">
-        <v>0.09639963598558889</v>
+        <v>0.1199177007191215</v>
       </c>
       <c r="Q4">
-        <v>7.884908613578192</v>
+        <v>5.048810499839167</v>
       </c>
       <c r="R4">
-        <v>7.884908613578192</v>
+        <v>30.292862999035</v>
       </c>
       <c r="S4">
-        <v>0.09639963598558889</v>
+        <v>0.007390132201200669</v>
       </c>
       <c r="T4">
-        <v>0.09639963598558889</v>
+        <v>0.006450049736037949</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.674545568676103</v>
+        <v>0.3788275</v>
       </c>
       <c r="H5">
-        <v>0.674545568676103</v>
+        <v>0.757655</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.07061342889271995</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.05378730327014565</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.0404337138817</v>
+        <v>24.04189266666667</v>
       </c>
       <c r="N5">
-        <v>22.0404337138817</v>
+        <v>72.12567800000001</v>
       </c>
       <c r="O5">
-        <v>0.1817649577006526</v>
+        <v>0.1887930437533183</v>
       </c>
       <c r="P5">
-        <v>0.1817649577006526</v>
+        <v>0.2163238354260682</v>
       </c>
       <c r="Q5">
-        <v>14.86727689339829</v>
+        <v>9.107730094181667</v>
       </c>
       <c r="R5">
-        <v>14.86727689339829</v>
+        <v>54.64638056509001</v>
       </c>
       <c r="S5">
-        <v>0.1817649577006526</v>
+        <v>0.01333132417051511</v>
       </c>
       <c r="T5">
-        <v>0.1817649577006526</v>
+        <v>0.01163547574062301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.674545568676103</v>
+        <v>0.3788275</v>
       </c>
       <c r="H6">
-        <v>0.674545568676103</v>
+        <v>0.757655</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.07061342889271995</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.05378730327014565</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.3216963641816</v>
+        <v>23.53771866666667</v>
       </c>
       <c r="N6">
-        <v>23.3216963641816</v>
+        <v>70.613156</v>
       </c>
       <c r="O6">
-        <v>0.1923313854968764</v>
+        <v>0.184833931824778</v>
       </c>
       <c r="P6">
-        <v>0.1923313854968764</v>
+        <v>0.211787385034485</v>
       </c>
       <c r="Q6">
-        <v>15.73154693646828</v>
+        <v>8.916735118196666</v>
       </c>
       <c r="R6">
-        <v>15.73154693646828</v>
+        <v>53.50041070918</v>
       </c>
       <c r="S6">
-        <v>0.1923313854968764</v>
+        <v>0.01305175770187081</v>
       </c>
       <c r="T6">
-        <v>0.1923313854968764</v>
+        <v>0.01139147230764095</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1921 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.3788275</v>
+      </c>
+      <c r="H7">
+        <v>0.757655</v>
+      </c>
+      <c r="I7">
+        <v>0.07061342889271995</v>
+      </c>
+      <c r="J7">
+        <v>0.05378730327014565</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>16.857219</v>
+      </c>
+      <c r="N7">
+        <v>33.714438</v>
+      </c>
+      <c r="O7">
+        <v>0.1323741740449054</v>
+      </c>
+      <c r="P7">
+        <v>0.1011184468504321</v>
+      </c>
+      <c r="Q7">
+        <v>6.3859781307225</v>
+      </c>
+      <c r="R7">
+        <v>25.54391252289</v>
+      </c>
+      <c r="S7">
+        <v>0.009347394326152461</v>
+      </c>
+      <c r="T7">
+        <v>0.005438888566950296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.6384586666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.915376</v>
+      </c>
+      <c r="I8">
+        <v>0.1190086666348337</v>
+      </c>
+      <c r="J8">
+        <v>0.1359760178291683</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>31.7631495</v>
+      </c>
+      <c r="N8">
+        <v>63.52629899999999</v>
+      </c>
+      <c r="O8">
+        <v>0.2494255238736205</v>
+      </c>
+      <c r="P8">
+        <v>0.1905320411699034</v>
+      </c>
+      <c r="Q8">
+        <v>20.279458078904</v>
+      </c>
+      <c r="R8">
+        <v>121.676748473424</v>
+      </c>
+      <c r="S8">
+        <v>0.02968379902089446</v>
+      </c>
+      <c r="T8">
+        <v>0.02590778822714662</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.6384586666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.915376</v>
+      </c>
+      <c r="I9">
+        <v>0.1190086666348337</v>
+      </c>
+      <c r="J9">
+        <v>0.1359760178291683</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.81777966666667</v>
+      </c>
+      <c r="N9">
+        <v>53.453339</v>
+      </c>
+      <c r="O9">
+        <v>0.139917139754138</v>
+      </c>
+      <c r="P9">
+        <v>0.1603205907999899</v>
+      </c>
+      <c r="Q9">
+        <v>11.37591584894045</v>
+      </c>
+      <c r="R9">
+        <v>102.383242640464</v>
+      </c>
+      <c r="S9">
+        <v>0.01665135224149964</v>
+      </c>
+      <c r="T9">
+        <v>0.02179975551300222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.674545568676103</v>
-      </c>
-      <c r="H7">
-        <v>0.674545568676103</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>16.3971553699372</v>
-      </c>
-      <c r="N7">
-        <v>16.3971553699372</v>
-      </c>
-      <c r="O7">
-        <v>0.135225481082548</v>
-      </c>
-      <c r="P7">
-        <v>0.135225481082548</v>
-      </c>
-      <c r="Q7">
-        <v>11.06062849368471</v>
-      </c>
-      <c r="R7">
-        <v>11.06062849368471</v>
-      </c>
-      <c r="S7">
-        <v>0.135225481082548</v>
-      </c>
-      <c r="T7">
-        <v>0.135225481082548</v>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.6384586666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.915376</v>
+      </c>
+      <c r="I10">
+        <v>0.1190086666348337</v>
+      </c>
+      <c r="J10">
+        <v>0.1359760178291683</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.32746566666667</v>
+      </c>
+      <c r="N10">
+        <v>39.982397</v>
+      </c>
+      <c r="O10">
+        <v>0.1046561867492399</v>
+      </c>
+      <c r="P10">
+        <v>0.1199177007191215</v>
+      </c>
+      <c r="Q10">
+        <v>8.509035959585779</v>
+      </c>
+      <c r="R10">
+        <v>76.581323636272</v>
+      </c>
+      <c r="S10">
+        <v>0.01245499324011319</v>
+      </c>
+      <c r="T10">
+        <v>0.01630593141101613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.6384586666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.915376</v>
+      </c>
+      <c r="I11">
+        <v>0.1190086666348337</v>
+      </c>
+      <c r="J11">
+        <v>0.1359760178291683</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>24.04189266666667</v>
+      </c>
+      <c r="N11">
+        <v>72.12567800000001</v>
+      </c>
+      <c r="O11">
+        <v>0.1887930437533183</v>
+      </c>
+      <c r="P11">
+        <v>0.2163238354260682</v>
+      </c>
+      <c r="Q11">
+        <v>15.34975473610311</v>
+      </c>
+      <c r="R11">
+        <v>138.147792624928</v>
+      </c>
+      <c r="S11">
+        <v>0.02246800840701423</v>
+      </c>
+      <c r="T11">
+        <v>0.02941485370276913</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.6384586666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.915376</v>
+      </c>
+      <c r="I12">
+        <v>0.1190086666348337</v>
+      </c>
+      <c r="J12">
+        <v>0.1359760178291683</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>23.53771866666667</v>
+      </c>
+      <c r="N12">
+        <v>70.613156</v>
+      </c>
+      <c r="O12">
+        <v>0.184833931824778</v>
+      </c>
+      <c r="P12">
+        <v>0.211787385034485</v>
+      </c>
+      <c r="Q12">
+        <v>15.02786047629511</v>
+      </c>
+      <c r="R12">
+        <v>135.250744286656</v>
+      </c>
+      <c r="S12">
+        <v>0.02199683977534058</v>
+      </c>
+      <c r="T12">
+        <v>0.02879800524344206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.6384586666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.915376</v>
+      </c>
+      <c r="I13">
+        <v>0.1190086666348337</v>
+      </c>
+      <c r="J13">
+        <v>0.1359760178291683</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.857219</v>
+      </c>
+      <c r="N13">
+        <v>33.714438</v>
+      </c>
+      <c r="O13">
+        <v>0.1323741740449054</v>
+      </c>
+      <c r="P13">
+        <v>0.1011184468504321</v>
+      </c>
+      <c r="Q13">
+        <v>10.762637566448</v>
+      </c>
+      <c r="R13">
+        <v>64.57582539868801</v>
+      </c>
+      <c r="S13">
+        <v>0.0157536739499716</v>
+      </c>
+      <c r="T13">
+        <v>0.01374968373179217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.390581666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.171745</v>
+      </c>
+      <c r="I14">
+        <v>0.2592043598700904</v>
+      </c>
+      <c r="J14">
+        <v>0.2961597474849553</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>31.7631495</v>
+      </c>
+      <c r="N14">
+        <v>63.52629899999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2494255238736205</v>
+      </c>
+      <c r="P14">
+        <v>0.1905320411699034</v>
+      </c>
+      <c r="Q14">
+        <v>44.16925337029249</v>
+      </c>
+      <c r="R14">
+        <v>265.015520221755</v>
+      </c>
+      <c r="S14">
+        <v>0.06465218325092376</v>
+      </c>
+      <c r="T14">
+        <v>0.0564279212006717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.390581666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.171745</v>
+      </c>
+      <c r="I15">
+        <v>0.2592043598700904</v>
+      </c>
+      <c r="J15">
+        <v>0.2961597474849553</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>17.81777966666667</v>
+      </c>
+      <c r="N15">
+        <v>53.453339</v>
+      </c>
+      <c r="O15">
+        <v>0.139917139754138</v>
+      </c>
+      <c r="P15">
+        <v>0.1603205907999899</v>
+      </c>
+      <c r="Q15">
+        <v>24.77707774517278</v>
+      </c>
+      <c r="R15">
+        <v>222.993699706555</v>
+      </c>
+      <c r="S15">
+        <v>0.0362671326448253</v>
+      </c>
+      <c r="T15">
+        <v>0.04748050568796385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.390581666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.171745</v>
+      </c>
+      <c r="I16">
+        <v>0.2592043598700904</v>
+      </c>
+      <c r="J16">
+        <v>0.2961597474849553</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.32746566666667</v>
+      </c>
+      <c r="N16">
+        <v>39.982397</v>
+      </c>
+      <c r="O16">
+        <v>0.1046561867492399</v>
+      </c>
+      <c r="P16">
+        <v>0.1199177007191215</v>
+      </c>
+      <c r="Q16">
+        <v>18.53292941919611</v>
+      </c>
+      <c r="R16">
+        <v>166.796364772765</v>
+      </c>
+      <c r="S16">
+        <v>0.02712733989278135</v>
+      </c>
+      <c r="T16">
+        <v>0.03551479596395145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.390581666666667</v>
+      </c>
+      <c r="H17">
+        <v>4.171745</v>
+      </c>
+      <c r="I17">
+        <v>0.2592043598700904</v>
+      </c>
+      <c r="J17">
+        <v>0.2961597474849553</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>24.04189266666667</v>
+      </c>
+      <c r="N17">
+        <v>72.12567800000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1887930437533183</v>
+      </c>
+      <c r="P17">
+        <v>0.2163238354260682</v>
+      </c>
+      <c r="Q17">
+        <v>33.43221517423444</v>
+      </c>
+      <c r="R17">
+        <v>300.88993656811</v>
+      </c>
+      <c r="S17">
+        <v>0.04893598005400483</v>
+      </c>
+      <c r="T17">
+        <v>0.06406641247476139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.390581666666667</v>
+      </c>
+      <c r="H18">
+        <v>4.171745</v>
+      </c>
+      <c r="I18">
+        <v>0.2592043598700904</v>
+      </c>
+      <c r="J18">
+        <v>0.2961597474849553</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>23.53771866666667</v>
+      </c>
+      <c r="N18">
+        <v>70.613156</v>
+      </c>
+      <c r="O18">
+        <v>0.184833931824778</v>
+      </c>
+      <c r="P18">
+        <v>0.211787385034485</v>
+      </c>
+      <c r="Q18">
+        <v>32.73112005302444</v>
+      </c>
+      <c r="R18">
+        <v>294.58008047722</v>
+      </c>
+      <c r="S18">
+        <v>0.0479097609809135</v>
+      </c>
+      <c r="T18">
+        <v>0.06272289847231206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.390581666666667</v>
+      </c>
+      <c r="H19">
+        <v>4.171745</v>
+      </c>
+      <c r="I19">
+        <v>0.2592043598700904</v>
+      </c>
+      <c r="J19">
+        <v>0.2961597474849553</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.857219</v>
+      </c>
+      <c r="N19">
+        <v>33.714438</v>
+      </c>
+      <c r="O19">
+        <v>0.1323741740449054</v>
+      </c>
+      <c r="P19">
+        <v>0.1011184468504321</v>
+      </c>
+      <c r="Q19">
+        <v>23.441339692385</v>
+      </c>
+      <c r="R19">
+        <v>140.64803815431</v>
+      </c>
+      <c r="S19">
+        <v>0.03431196304664164</v>
+      </c>
+      <c r="T19">
+        <v>0.02994721368529484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9594699999999999</v>
+      </c>
+      <c r="H20">
+        <v>2.87841</v>
+      </c>
+      <c r="I20">
+        <v>0.1788451646717781</v>
+      </c>
+      <c r="J20">
+        <v>0.2043435489844586</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>31.7631495</v>
+      </c>
+      <c r="N20">
+        <v>63.52629899999999</v>
+      </c>
+      <c r="O20">
+        <v>0.2494255238736205</v>
+      </c>
+      <c r="P20">
+        <v>0.1905320411699034</v>
+      </c>
+      <c r="Q20">
+        <v>30.47578905076499</v>
+      </c>
+      <c r="R20">
+        <v>182.85473430459</v>
+      </c>
+      <c r="S20">
+        <v>0.04460854889052217</v>
+      </c>
+      <c r="T20">
+        <v>0.03893399348791104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9594699999999999</v>
+      </c>
+      <c r="H21">
+        <v>2.87841</v>
+      </c>
+      <c r="I21">
+        <v>0.1788451646717781</v>
+      </c>
+      <c r="J21">
+        <v>0.2043435489844586</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>17.81777966666667</v>
+      </c>
+      <c r="N21">
+        <v>53.453339</v>
+      </c>
+      <c r="O21">
+        <v>0.139917139754138</v>
+      </c>
+      <c r="P21">
+        <v>0.1603205907999899</v>
+      </c>
+      <c r="Q21">
+        <v>17.09562505677667</v>
+      </c>
+      <c r="R21">
+        <v>153.86062551099</v>
+      </c>
+      <c r="S21">
+        <v>0.02502350389973299</v>
+      </c>
+      <c r="T21">
+        <v>0.03276047849935507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9594699999999999</v>
+      </c>
+      <c r="H22">
+        <v>2.87841</v>
+      </c>
+      <c r="I22">
+        <v>0.1788451646717781</v>
+      </c>
+      <c r="J22">
+        <v>0.2043435489844586</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.32746566666667</v>
+      </c>
+      <c r="N22">
+        <v>39.982397</v>
+      </c>
+      <c r="O22">
+        <v>0.1046561867492399</v>
+      </c>
+      <c r="P22">
+        <v>0.1199177007191215</v>
+      </c>
+      <c r="Q22">
+        <v>12.78730348319667</v>
+      </c>
+      <c r="R22">
+        <v>115.08573134877</v>
+      </c>
+      <c r="S22">
+        <v>0.01871725295308816</v>
+      </c>
+      <c r="T22">
+        <v>0.02450440855100144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9594699999999999</v>
+      </c>
+      <c r="H23">
+        <v>2.87841</v>
+      </c>
+      <c r="I23">
+        <v>0.1788451646717781</v>
+      </c>
+      <c r="J23">
+        <v>0.2043435489844586</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>24.04189266666667</v>
+      </c>
+      <c r="N23">
+        <v>72.12567800000001</v>
+      </c>
+      <c r="O23">
+        <v>0.1887930437533183</v>
+      </c>
+      <c r="P23">
+        <v>0.2163238354260682</v>
+      </c>
+      <c r="Q23">
+        <v>23.06747475688667</v>
+      </c>
+      <c r="R23">
+        <v>207.60727281198</v>
+      </c>
+      <c r="S23">
+        <v>0.03376472299894841</v>
+      </c>
+      <c r="T23">
+        <v>0.04420438026089273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9594699999999999</v>
+      </c>
+      <c r="H24">
+        <v>2.87841</v>
+      </c>
+      <c r="I24">
+        <v>0.1788451646717781</v>
+      </c>
+      <c r="J24">
+        <v>0.2043435489844586</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>23.53771866666667</v>
+      </c>
+      <c r="N24">
+        <v>70.613156</v>
+      </c>
+      <c r="O24">
+        <v>0.184833931824778</v>
+      </c>
+      <c r="P24">
+        <v>0.211787385034485</v>
+      </c>
+      <c r="Q24">
+        <v>22.58373492910667</v>
+      </c>
+      <c r="R24">
+        <v>203.25361436196</v>
+      </c>
+      <c r="S24">
+        <v>0.03305665497413462</v>
+      </c>
+      <c r="T24">
+        <v>0.04327738588808466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9594699999999999</v>
+      </c>
+      <c r="H25">
+        <v>2.87841</v>
+      </c>
+      <c r="I25">
+        <v>0.1788451646717781</v>
+      </c>
+      <c r="J25">
+        <v>0.2043435489844586</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.857219</v>
+      </c>
+      <c r="N25">
+        <v>33.714438</v>
+      </c>
+      <c r="O25">
+        <v>0.1323741740449054</v>
+      </c>
+      <c r="P25">
+        <v>0.1011184468504321</v>
+      </c>
+      <c r="Q25">
+        <v>16.17399591393</v>
+      </c>
+      <c r="R25">
+        <v>97.04397548358</v>
+      </c>
+      <c r="S25">
+        <v>0.02367448095535172</v>
+      </c>
+      <c r="T25">
+        <v>0.02066290229721364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.3680043333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.104013</v>
+      </c>
+      <c r="I26">
+        <v>0.06859599111481121</v>
+      </c>
+      <c r="J26">
+        <v>0.07837588618194734</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>31.7631495</v>
+      </c>
+      <c r="N26">
+        <v>63.52629899999999</v>
+      </c>
+      <c r="O26">
+        <v>0.2494255238736205</v>
+      </c>
+      <c r="P26">
+        <v>0.1905320411699034</v>
+      </c>
+      <c r="Q26">
+        <v>11.6889766563145</v>
+      </c>
+      <c r="R26">
+        <v>70.13385993788698</v>
+      </c>
+      <c r="S26">
+        <v>0.017109591019442</v>
+      </c>
+      <c r="T26">
+        <v>0.01493311757274646</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.3680043333333333</v>
+      </c>
+      <c r="H27">
+        <v>1.104013</v>
+      </c>
+      <c r="I27">
+        <v>0.06859599111481121</v>
+      </c>
+      <c r="J27">
+        <v>0.07837588618194734</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>17.81777966666667</v>
+      </c>
+      <c r="N27">
+        <v>53.453339</v>
+      </c>
+      <c r="O27">
+        <v>0.139917139754138</v>
+      </c>
+      <c r="P27">
+        <v>0.1603205907999899</v>
+      </c>
+      <c r="Q27">
+        <v>6.557020127711889</v>
+      </c>
+      <c r="R27">
+        <v>59.013181149407</v>
+      </c>
+      <c r="S27">
+        <v>0.009597754875384647</v>
+      </c>
+      <c r="T27">
+        <v>0.01256526837716256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.3680043333333333</v>
+      </c>
+      <c r="H28">
+        <v>1.104013</v>
+      </c>
+      <c r="I28">
+        <v>0.06859599111481121</v>
+      </c>
+      <c r="J28">
+        <v>0.07837588618194734</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>13.32746566666667</v>
+      </c>
+      <c r="N28">
+        <v>39.982397</v>
+      </c>
+      <c r="O28">
+        <v>0.1046561867492399</v>
+      </c>
+      <c r="P28">
+        <v>0.1199177007191215</v>
+      </c>
+      <c r="Q28">
+        <v>4.904565117684555</v>
+      </c>
+      <c r="R28">
+        <v>44.141086059161</v>
+      </c>
+      <c r="S28">
+        <v>0.007178994856360881</v>
+      </c>
+      <c r="T28">
+        <v>0.009398656062762687</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.3680043333333333</v>
+      </c>
+      <c r="H29">
+        <v>1.104013</v>
+      </c>
+      <c r="I29">
+        <v>0.06859599111481121</v>
+      </c>
+      <c r="J29">
+        <v>0.07837588618194734</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>24.04189266666667</v>
+      </c>
+      <c r="N29">
+        <v>72.12567800000001</v>
+      </c>
+      <c r="O29">
+        <v>0.1887930437533183</v>
+      </c>
+      <c r="P29">
+        <v>0.2163238354260682</v>
+      </c>
+      <c r="Q29">
+        <v>8.847520682868224</v>
+      </c>
+      <c r="R29">
+        <v>79.627686145814</v>
+      </c>
+      <c r="S29">
+        <v>0.01295044595184079</v>
+      </c>
+      <c r="T29">
+        <v>0.01695457230379583</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.3680043333333333</v>
+      </c>
+      <c r="H30">
+        <v>1.104013</v>
+      </c>
+      <c r="I30">
+        <v>0.06859599111481121</v>
+      </c>
+      <c r="J30">
+        <v>0.07837588618194734</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>23.53771866666667</v>
+      </c>
+      <c r="N30">
+        <v>70.613156</v>
+      </c>
+      <c r="O30">
+        <v>0.184833931824778</v>
+      </c>
+      <c r="P30">
+        <v>0.211787385034485</v>
+      </c>
+      <c r="Q30">
+        <v>8.661982466114223</v>
+      </c>
+      <c r="R30">
+        <v>77.95784219502799</v>
+      </c>
+      <c r="S30">
+        <v>0.01267886674516809</v>
+      </c>
+      <c r="T30">
+        <v>0.01659902398423505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.3680043333333333</v>
+      </c>
+      <c r="H31">
+        <v>1.104013</v>
+      </c>
+      <c r="I31">
+        <v>0.06859599111481121</v>
+      </c>
+      <c r="J31">
+        <v>0.07837588618194734</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>16.857219</v>
+      </c>
+      <c r="N31">
+        <v>33.714438</v>
+      </c>
+      <c r="O31">
+        <v>0.1323741740449054</v>
+      </c>
+      <c r="P31">
+        <v>0.1011184468504321</v>
+      </c>
+      <c r="Q31">
+        <v>6.203529639949</v>
+      </c>
+      <c r="R31">
+        <v>37.221177839694</v>
+      </c>
+      <c r="S31">
+        <v>0.009080337666614804</v>
+      </c>
+      <c r="T31">
+        <v>0.007925247881244758</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>1.629466</v>
+      </c>
+      <c r="H32">
+        <v>3.258932</v>
+      </c>
+      <c r="I32">
+        <v>0.3037323888157666</v>
+      </c>
+      <c r="J32">
+        <v>0.231357496249325</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>31.7631495</v>
+      </c>
+      <c r="N32">
+        <v>63.52629899999999</v>
+      </c>
+      <c r="O32">
+        <v>0.2494255238736205</v>
+      </c>
+      <c r="P32">
+        <v>0.1905320411699034</v>
+      </c>
+      <c r="Q32">
+        <v>51.756972163167</v>
+      </c>
+      <c r="R32">
+        <v>207.027888652668</v>
+      </c>
+      <c r="S32">
+        <v>0.07575861019775877</v>
+      </c>
+      <c r="T32">
+        <v>0.04408101600034217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>1.629466</v>
+      </c>
+      <c r="H33">
+        <v>3.258932</v>
+      </c>
+      <c r="I33">
+        <v>0.3037323888157666</v>
+      </c>
+      <c r="J33">
+        <v>0.231357496249325</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>17.81777966666667</v>
+      </c>
+      <c r="N33">
+        <v>53.453339</v>
+      </c>
+      <c r="O33">
+        <v>0.139917139754138</v>
+      </c>
+      <c r="P33">
+        <v>0.1603205907999899</v>
+      </c>
+      <c r="Q33">
+        <v>29.03346616232467</v>
+      </c>
+      <c r="R33">
+        <v>174.200796973948</v>
+      </c>
+      <c r="S33">
+        <v>0.04249736709379379</v>
+      </c>
+      <c r="T33">
+        <v>0.03709137048469823</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>1.629466</v>
+      </c>
+      <c r="H34">
+        <v>3.258932</v>
+      </c>
+      <c r="I34">
+        <v>0.3037323888157666</v>
+      </c>
+      <c r="J34">
+        <v>0.231357496249325</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>13.32746566666667</v>
+      </c>
+      <c r="N34">
+        <v>39.982397</v>
+      </c>
+      <c r="O34">
+        <v>0.1046561867492399</v>
+      </c>
+      <c r="P34">
+        <v>0.1199177007191215</v>
+      </c>
+      <c r="Q34">
+        <v>21.71665217000067</v>
+      </c>
+      <c r="R34">
+        <v>130.299913020004</v>
+      </c>
+      <c r="S34">
+        <v>0.0317874736056956</v>
+      </c>
+      <c r="T34">
+        <v>0.02774385899435182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>1.629466</v>
+      </c>
+      <c r="H35">
+        <v>3.258932</v>
+      </c>
+      <c r="I35">
+        <v>0.3037323888157666</v>
+      </c>
+      <c r="J35">
+        <v>0.231357496249325</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>24.04189266666667</v>
+      </c>
+      <c r="N35">
+        <v>72.12567800000001</v>
+      </c>
+      <c r="O35">
+        <v>0.1887930437533183</v>
+      </c>
+      <c r="P35">
+        <v>0.2163238354260682</v>
+      </c>
+      <c r="Q35">
+        <v>39.17544667598267</v>
+      </c>
+      <c r="R35">
+        <v>235.052680055896</v>
+      </c>
+      <c r="S35">
+        <v>0.05734256217099491</v>
+      </c>
+      <c r="T35">
+        <v>0.05004814094322618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>1.629466</v>
+      </c>
+      <c r="H36">
+        <v>3.258932</v>
+      </c>
+      <c r="I36">
+        <v>0.3037323888157666</v>
+      </c>
+      <c r="J36">
+        <v>0.231357496249325</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>23.53771866666667</v>
+      </c>
+      <c r="N36">
+        <v>70.613156</v>
+      </c>
+      <c r="O36">
+        <v>0.184833931824778</v>
+      </c>
+      <c r="P36">
+        <v>0.211787385034485</v>
+      </c>
+      <c r="Q36">
+        <v>38.35391228489867</v>
+      </c>
+      <c r="R36">
+        <v>230.123473709392</v>
+      </c>
+      <c r="S36">
+        <v>0.05614005164735036</v>
+      </c>
+      <c r="T36">
+        <v>0.04899859913877021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>1.629466</v>
+      </c>
+      <c r="H37">
+        <v>3.258932</v>
+      </c>
+      <c r="I37">
+        <v>0.3037323888157666</v>
+      </c>
+      <c r="J37">
+        <v>0.231357496249325</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>16.857219</v>
+      </c>
+      <c r="N37">
+        <v>33.714438</v>
+      </c>
+      <c r="O37">
+        <v>0.1323741740449054</v>
+      </c>
+      <c r="P37">
+        <v>0.1011184468504321</v>
+      </c>
+      <c r="Q37">
+        <v>27.468265215054</v>
+      </c>
+      <c r="R37">
+        <v>109.873060860216</v>
+      </c>
+      <c r="S37">
+        <v>0.04020632410017316</v>
+      </c>
+      <c r="T37">
+        <v>0.02339451068793641</v>
       </c>
     </row>
   </sheetData>
